--- a/Data/Lab Notebook - Table excel files/240726_PM_EC50.xlsx
+++ b/Data/Lab Notebook - Table excel files/240726_PM_EC50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Lab Notebook/Data/Lab Notebook - Table excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8D32FDDB-2BBB-9549-BB2A-6B3AA5E126CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39988B8C-B350-8241-85FF-4633EE69A5E2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8D32FDDB-2BBB-9549-BB2A-6B3AA5E126CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD659968-50BB-394D-A2F2-045C5E6D7AE1}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="2800" windowWidth="27640" windowHeight="16320" xr2:uid="{86D43FC3-3999-1644-9235-469081320BD4}"/>
+    <workbookView xWindow="34780" yWindow="-1980" windowWidth="27640" windowHeight="16320" xr2:uid="{86D43FC3-3999-1644-9235-469081320BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
